--- a/Scenario Planning Tool/Scenario Planning Tool.xlsx
+++ b/Scenario Planning Tool/Scenario Planning Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Desktop\Codebasics\Excel\8. Real Time Business Applicatiion\Scenario Planning Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C02AF-6A90-4F83-9C09-650078915DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB07C42-1908-4F20-87A4-FE3C0EA86B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{6187333E-9626-4616-8A8A-811ECBEA0841}"/>
   </bookViews>
@@ -915,6 +915,90 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -927,103 +1011,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1488,7 +1488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BA6913-8639-4000-872D-CAE93087F5CE}">
   <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1506,44 +1508,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="48">
         <v>45163</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
@@ -1616,18 +1618,18 @@
     </row>
     <row r="12" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="25"/>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="46" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48" t="s">
+      <c r="H12" s="55"/>
+      <c r="I12" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="48"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1641,144 +1643,144 @@
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="49">
+      <c r="E14" s="66">
         <v>100000</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49">
+      <c r="F14" s="66"/>
+      <c r="G14" s="66">
         <v>50000</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49">
+      <c r="H14" s="66"/>
+      <c r="I14" s="66">
         <v>30000</v>
       </c>
-      <c r="J14" s="49"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="44">
+      <c r="E15" s="67">
         <f>E14*$I$8</f>
         <v>565000</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44">
+      <c r="F15" s="67"/>
+      <c r="G15" s="67">
         <f>G14*$I$8</f>
         <v>282500</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44">
+      <c r="H15" s="67"/>
+      <c r="I15" s="67">
         <f>I14*$I$8</f>
         <v>169500</v>
       </c>
-      <c r="J15" s="44"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="44">
+      <c r="E16" s="67">
         <f>E15*$E$8</f>
         <v>56500</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44">
+      <c r="F16" s="67"/>
+      <c r="G16" s="67">
         <f>G15*$E$8</f>
         <v>28250</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44">
+      <c r="H16" s="67"/>
+      <c r="I16" s="67">
         <f>I15*$E$8</f>
         <v>16950</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="67"/>
       <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="44">
+      <c r="E17" s="67">
         <f>E15-E16</f>
         <v>508500</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44">
+      <c r="F17" s="67"/>
+      <c r="G17" s="67">
         <f>G15-G16</f>
         <v>254250</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44">
+      <c r="H17" s="67"/>
+      <c r="I17" s="67">
         <f>I15-I16</f>
         <v>152550</v>
       </c>
-      <c r="J17" s="44"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="44">
+      <c r="E18" s="67">
         <f>E17*$G$8</f>
         <v>152550</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44">
+      <c r="F18" s="67"/>
+      <c r="G18" s="67">
         <f>G17*$G$8</f>
         <v>76275</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67">
         <f>I17*$G$8</f>
         <v>45765</v>
       </c>
-      <c r="J18" s="44"/>
+      <c r="J18" s="67"/>
       <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="44">
+      <c r="E19" s="67">
         <f>E17-E18</f>
         <v>355950</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67">
         <f>G17-G18</f>
         <v>177975</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44">
+      <c r="H19" s="67"/>
+      <c r="I19" s="67">
         <f>I17-I18</f>
         <v>106785</v>
       </c>
-      <c r="J19" s="44"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1792,48 +1794,30 @@
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="E21" s="45">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="E21" s="68">
         <f>E19-$L$8</f>
         <v>255950</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45">
+      <c r="F21" s="68"/>
+      <c r="G21" s="68">
         <f>G19-$L$8</f>
         <v>77975</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45">
+      <c r="H21" s="68"/>
+      <c r="I21" s="68">
         <f>I19-$L$8</f>
         <v>6785</v>
       </c>
-      <c r="J21" s="45"/>
+      <c r="J21" s="68"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="sbiylyz1i6Pll+FVC2khidAFMDYPliRVu1KWaYF37iv8DPzcOqwDxkj25iLlDG1F2QGqv6EFCOaUAzT5nHp61Q==" saltValue="cs6MVNgsFhZgAyB8TOV1Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
@@ -1850,6 +1834,25 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
@@ -1886,12 +1889,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2124,20 +2129,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E34AEC-F98E-449C-B2A1-3427C30D7CA4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0145E0-780A-4AAB-9E0F-90693F5A3383}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
+    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2162,12 +2168,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0145E0-780A-4AAB-9E0F-90693F5A3383}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E34AEC-F98E-449C-B2A1-3427C30D7CA4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
-    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>